--- a/Medanta.xlsx
+++ b/Medanta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\OneDrive\Documents\Machine Learning\Hospital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796C64D3-0E68-482D-BD08-04C71D393403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C987E9-B6D7-4D1A-8DDE-349CB4DC4F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,42 @@
   </si>
   <si>
     <t xml:space="preserve">It is not a doctor for paying one star...people decide by looking at it.....they spend days just sitting there, a lot of time passes during discharge, gents are also admitted in the ladies ward, the staff are only those who have given good reviews. Should be, the cost of 3 days is literally 19000 rupees, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart Problem </t>
+  </si>
+  <si>
+    <t>Women's Health Issues</t>
+  </si>
+  <si>
+    <t>Dr. Ram kirti Saran</t>
+  </si>
+  <si>
+    <t>Dr. Nakul Sinha</t>
+  </si>
+  <si>
+    <t>Dr. Pravin K Goel</t>
+  </si>
+  <si>
+    <t>Dr. Gauranga Majumdar</t>
+  </si>
+  <si>
+    <t>Dr. Sabhyata Gupta</t>
+  </si>
+  <si>
+    <t>Nice and gentle doctor</t>
+  </si>
+  <si>
+    <t>Very greate doctor and give you the most assurance one can give.</t>
+  </si>
+  <si>
+    <t>Very helpful doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and clean Hospital. All experiance Doctor. Corporative staff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital service is best also dr are knowledged so working guidelines is best </t>
   </si>
 </sst>
 </file>
@@ -384,16 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
@@ -482,6 +518,76 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>4.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>4.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
